--- a/biology/Histoire de la zoologie et de la botanique/Edgar_Alexander_Mearns/Edgar_Alexander_Mearns.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edgar_Alexander_Mearns/Edgar_Alexander_Mearns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edgar Alexander Mearns est un chirurgien militaire et un ornithologue américain, né le 11 septembre 1856 à Highland Falls, près de New York, et mort le 1er novembre 1916 à Washington. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents, Alexander et Nancy Reliance Mearns, sont nés à Clarswell.  Son grand-père, Alexandre était d'origine écossaise et a déménagé à Highland Falls en 1815. Edgar Alexander a fait ses études au Donald Highland Institute puis des études de médecine et de chirurgie au Collège Columbia où il a obtenu son diplôme en 1881. En 1881, il se marie. Un fils et une fille naissent bientôt de cette union. De 1882 à 1899, il est chirurgien militaire puis dans diverses institutions militaires jusqu'en 1903. Mearns, avec quelques autres ornithologues, fonde l'Union américaine d'ornithologie en 1883. De 1903 à 1904, il se rend aux Philippines mais doit rentrer du fait d'une infection parasitaire. Il y repart de 1905 à 1907, en passant par l'île de Guam. En 1909, il prend sa retraite de l'armée avec le grade de lieutenant-colonel. Il accompagne ensuite Theodore Roosevelt avec qui il se lie d'amitié lors un voyage en Afrique. De 1911 à 1912, il repart pour la seconde fois en Afrique. Son fils né en 1886 meurt en 1912.
 </t>
@@ -542,7 +556,9 @@
           <t>Son travail d'ornithologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il décrit plusieurs espèces d'oiseaux comme le Souimanga de Bolton ou le Cisticole des Borans. Certaines espèces portent son nom, comme le reptile Petrosaurus mearnsi ou l'acacia Acacia mearnsii.
 </t>
